--- a/red_bayesiana_2.xlsx
+++ b/red_bayesiana_2.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\jgcar\Downloads\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F76058EC-1120-4DC6-A883-563D3BD71B66}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C228A36A-043B-43AC-A900-37573169F4B9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-23148" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{2DCC9824-7155-4BF7-9C3D-8C87AC54603B}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" activeTab="4" xr2:uid="{2DCC9824-7155-4BF7-9C3D-8C87AC54603B}"/>
   </bookViews>
   <sheets>
     <sheet name="rain" sheetId="1" r:id="rId1"/>
@@ -40,7 +40,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="40" uniqueCount="15">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="81" uniqueCount="16">
   <si>
     <t>none</t>
   </si>
@@ -85,19 +85,28 @@
   </si>
   <si>
     <t>appointment</t>
+  </si>
+  <si>
+    <t>__p__</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="1" x14ac:knownFonts="1">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Aptos Narrow"/>
       <family val="2"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="9"/>
+      <color rgb="FF4070A0"/>
+      <name val="Consolas"/>
+      <family val="3"/>
     </font>
   </fonts>
   <fills count="2">
@@ -120,8 +129,11 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -456,33 +468,43 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3A943FF3-6BCF-4739-B942-4FD61AEF44CC}">
-  <dimension ref="A1:C2"/>
+  <dimension ref="A1:B4"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C8" sqref="C8"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B7" sqref="B7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
+        <v>11</v>
+      </c>
+      <c r="B1" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
         <v>0</v>
       </c>
-      <c r="B1" t="s">
+      <c r="B2">
+        <v>0.7</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
         <v>1</v>
       </c>
-      <c r="C1" t="s">
+      <c r="B3">
+        <v>0.2</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
         <v>2</v>
       </c>
-    </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A2">
-        <v>0.7</v>
-      </c>
-      <c r="B2">
-        <v>0.2</v>
-      </c>
-      <c r="C2">
+      <c r="B4">
         <v>0.1</v>
       </c>
     </row>
@@ -493,72 +515,112 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F732D919-43A7-4B68-A42F-C6227CACEFB8}">
-  <dimension ref="A1:C4"/>
+  <dimension ref="A1:C7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B10" sqref="B10"/>
+      <selection activeCell="C13" sqref="C13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="2" max="2" width="12.5703125" bestFit="1" customWidth="1"/>
+  </cols>
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>11</v>
       </c>
       <c r="B1" t="s">
-        <v>3</v>
-      </c>
-      <c r="C1" t="s">
-        <v>4</v>
+        <v>13</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>15</v>
       </c>
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>0</v>
       </c>
-      <c r="B2">
+      <c r="B2" t="s">
+        <v>3</v>
+      </c>
+      <c r="C2">
         <v>0.4</v>
-      </c>
-      <c r="C2">
-        <v>0.6</v>
       </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>1</v>
-      </c>
-      <c r="B3">
-        <v>0.2</v>
+        <v>0</v>
+      </c>
+      <c r="B3" t="s">
+        <v>4</v>
       </c>
       <c r="C3">
-        <v>0.8</v>
+        <v>0.6</v>
       </c>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
+        <v>1</v>
+      </c>
+      <c r="B4" t="s">
+        <v>3</v>
+      </c>
+      <c r="C4">
+        <v>0.2</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
+        <v>1</v>
+      </c>
+      <c r="B5" t="s">
+        <v>4</v>
+      </c>
+      <c r="C5">
+        <v>0.8</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A6" t="s">
         <v>2</v>
       </c>
-      <c r="B4">
+      <c r="B6" t="s">
+        <v>3</v>
+      </c>
+      <c r="C6">
         <v>0.1</v>
       </c>
-      <c r="C4">
+    </row>
+    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A7" t="s">
+        <v>2</v>
+      </c>
+      <c r="B7" t="s">
+        <v>4</v>
+      </c>
+      <c r="C7">
         <v>0.9</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{24BC4D83-9542-4405-BC7D-32390B23B410}">
-  <dimension ref="A1:D7"/>
+  <dimension ref="A1:D13"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B1" sqref="B1"/>
+      <selection activeCell="D1" sqref="D1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="2" max="2" width="12.5703125" bestFit="1" customWidth="1"/>
+  </cols>
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
@@ -568,10 +630,10 @@
         <v>13</v>
       </c>
       <c r="C1" t="s">
-        <v>5</v>
-      </c>
-      <c r="D1" t="s">
-        <v>6</v>
+        <v>12</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>15</v>
       </c>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.25">
@@ -581,11 +643,11 @@
       <c r="B2" t="s">
         <v>3</v>
       </c>
-      <c r="C2">
+      <c r="C2" t="s">
+        <v>5</v>
+      </c>
+      <c r="D2">
         <v>0.8</v>
-      </c>
-      <c r="D2">
-        <v>0.2</v>
       </c>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.25">
@@ -593,52 +655,52 @@
         <v>0</v>
       </c>
       <c r="B3" t="s">
-        <v>4</v>
-      </c>
-      <c r="C3">
-        <v>0.9</v>
+        <v>3</v>
+      </c>
+      <c r="C3" t="s">
+        <v>6</v>
       </c>
       <c r="D3">
-        <v>0.1</v>
+        <v>0.2</v>
       </c>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="B4" t="s">
-        <v>3</v>
-      </c>
-      <c r="C4">
-        <v>0.6</v>
+        <v>4</v>
+      </c>
+      <c r="C4" t="s">
+        <v>5</v>
       </c>
       <c r="D4">
-        <v>0.4</v>
+        <v>0.9</v>
       </c>
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="B5" t="s">
         <v>4</v>
       </c>
-      <c r="C5">
-        <v>0.7</v>
+      <c r="C5" t="s">
+        <v>6</v>
       </c>
       <c r="D5">
-        <v>0.3</v>
+        <v>0.1</v>
       </c>
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B6" t="s">
         <v>3</v>
       </c>
-      <c r="C6">
-        <v>0.4</v>
+      <c r="C6" t="s">
+        <v>5</v>
       </c>
       <c r="D6">
         <v>0.6</v>
@@ -646,15 +708,99 @@
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
+        <v>1</v>
+      </c>
+      <c r="B7" t="s">
+        <v>3</v>
+      </c>
+      <c r="C7" t="s">
+        <v>6</v>
+      </c>
+      <c r="D7">
+        <v>0.4</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A8" t="s">
+        <v>1</v>
+      </c>
+      <c r="B8" t="s">
+        <v>4</v>
+      </c>
+      <c r="C8" t="s">
+        <v>5</v>
+      </c>
+      <c r="D8">
+        <v>0.7</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A9" t="s">
+        <v>1</v>
+      </c>
+      <c r="B9" t="s">
+        <v>4</v>
+      </c>
+      <c r="C9" t="s">
+        <v>6</v>
+      </c>
+      <c r="D9">
+        <v>0.3</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A10" t="s">
         <v>2</v>
       </c>
-      <c r="B7" t="s">
+      <c r="B10" t="s">
+        <v>3</v>
+      </c>
+      <c r="C10" t="s">
+        <v>5</v>
+      </c>
+      <c r="D10">
+        <v>0.4</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A11" t="s">
+        <v>2</v>
+      </c>
+      <c r="B11" t="s">
+        <v>3</v>
+      </c>
+      <c r="C11" t="s">
+        <v>6</v>
+      </c>
+      <c r="D11">
+        <v>0.6</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A12" t="s">
+        <v>2</v>
+      </c>
+      <c r="B12" t="s">
         <v>4</v>
       </c>
-      <c r="C7">
+      <c r="C12" t="s">
+        <v>5</v>
+      </c>
+      <c r="D12">
         <v>0.5</v>
       </c>
-      <c r="D7">
+    </row>
+    <row r="13" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A13" t="s">
+        <v>2</v>
+      </c>
+      <c r="B13" t="s">
+        <v>4</v>
+      </c>
+      <c r="C13" t="s">
+        <v>6</v>
+      </c>
+      <c r="D13">
         <v>0.5</v>
       </c>
     </row>
@@ -665,10 +811,10 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1340ED2D-E0E8-4C8A-98C1-25B3F498E5AD}">
-  <dimension ref="A1:C3"/>
+  <dimension ref="A1:C5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B6" sqref="B6"/>
+      <selection activeCell="G12" sqref="G12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -678,31 +824,53 @@
         <v>12</v>
       </c>
       <c r="B1" t="s">
-        <v>7</v>
+        <v>14</v>
       </c>
       <c r="C1" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>5</v>
       </c>
-      <c r="B2">
+      <c r="B2" t="s">
+        <v>7</v>
+      </c>
+      <c r="C2">
         <v>0.9</v>
       </c>
-      <c r="C2">
+    </row>
+    <row r="3" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
+        <v>5</v>
+      </c>
+      <c r="B3" t="s">
+        <v>8</v>
+      </c>
+      <c r="C3">
         <v>0.1</v>
       </c>
     </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A3" t="s">
+    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
         <v>6</v>
       </c>
-      <c r="B3">
+      <c r="B4" t="s">
+        <v>7</v>
+      </c>
+      <c r="C4">
         <v>0.6</v>
       </c>
-      <c r="C3">
+    </row>
+    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
+        <v>6</v>
+      </c>
+      <c r="B5" t="s">
+        <v>8</v>
+      </c>
+      <c r="C5">
         <v>0.4</v>
       </c>
     </row>
@@ -715,7 +883,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9B32FDB9-037D-4CC4-A3CC-C4BBE8620426}">
   <dimension ref="A1:B5"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="B7" sqref="B7"/>
     </sheetView>
   </sheetViews>
